--- a/02-lab/output/excel/steepest_descent_method_custom_point.xlsx
+++ b/02-lab/output/excel/steepest_descent_method_custom_point.xlsx
@@ -53,7 +53,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -61,6 +61,7 @@
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="11.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -70,6 +71,9 @@
       <c r="B1" s="0">
         <v>0.5</v>
       </c>
+      <c r="C1" s="0">
+        <v>-1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
@@ -78,6 +82,9 @@
       <c r="B2" s="0">
         <v>0.49500002980430491</v>
       </c>
+      <c r="C2" s="0">
+        <v>3.9999761565560537</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
@@ -86,6 +93,9 @@
       <c r="B3" s="0">
         <v>0.47911895233341567</v>
       </c>
+      <c r="C3" s="0">
+        <v>4.3999737722116592</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
@@ -94,6 +104,9 @@
       <c r="B4" s="0">
         <v>0.45606590283039794</v>
       </c>
+      <c r="C4" s="0">
+        <v>4.8399711494328255</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
@@ -102,6 +115,9 @@
       <c r="B5" s="0">
         <v>0.43117249982172778</v>
       </c>
+      <c r="C5" s="0">
+        <v>5.3239682643761093</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
@@ -110,6 +126,9 @@
       <c r="B6" s="0">
         <v>0.40780355343351721</v>
       </c>
+      <c r="C6" s="0">
+        <v>5.8563650908137213</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
@@ -118,6 +137,9 @@
       <c r="B7" s="0">
         <v>0.3875855806915337</v>
       </c>
+      <c r="C7" s="0">
+        <v>6.442016267429997</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
@@ -126,6 +148,9 @@
       <c r="B8" s="0">
         <v>0.37114734811155986</v>
       </c>
+      <c r="C8" s="0">
+        <v>7.0862178941729983</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
@@ -134,6 +159,9 @@
       <c r="B9" s="0">
         <v>0.35850816179355566</v>
       </c>
+      <c r="C9" s="0">
+        <v>7.7948396835902987</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
@@ -142,6 +170,9 @@
       <c r="B10" s="0">
         <v>0.34929205392581342</v>
       </c>
+      <c r="C10" s="0">
+        <v>8.574323651949328</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
@@ -150,6 +181,9 @@
       <c r="B11" s="0">
         <v>0.34291193200929088</v>
       </c>
+      <c r="C11" s="0">
+        <v>9.4317560171442629</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
@@ -158,6 +192,9 @@
       <c r="B12" s="0">
         <v>0.33872804970286036</v>
       </c>
+      <c r="C12" s="0">
+        <v>10.374946218188372</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
@@ -166,6 +203,9 @@
       <c r="B13" s="0">
         <v>0.33614850100885807</v>
       </c>
+      <c r="C13" s="0">
+        <v>11.412440840007209</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
@@ -174,6 +214,9 @@
       <c r="B14" s="0">
         <v>0.33467209000223019</v>
       </c>
+      <c r="C14" s="0">
+        <v>12.553684924007932</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
@@ -182,6 +225,9 @@
       <c r="B15" s="0">
         <v>0.33390095747090182</v>
       </c>
+      <c r="C15" s="0">
+        <v>13.809053416408727</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
@@ -190,6 +236,9 @@
       <c r="B16" s="0">
         <v>0.33354155930539126</v>
       </c>
+      <c r="C16" s="0">
+        <v>15.189958758049601</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
@@ -198,6 +247,9 @@
       <c r="B17" s="0">
         <v>0.33339657512060317</v>
       </c>
+      <c r="C17" s="0">
+        <v>16.70895463385456</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
@@ -206,6 +258,9 @@
       <c r="B18" s="0">
         <v>0.3333481408988429</v>
       </c>
+      <c r="C18" s="0">
+        <v>18.379866081825796</v>
+      </c>
     </row>
   </sheetData>
 </worksheet>

--- a/02-lab/output/excel/steepest_descent_method_custom_point.xlsx
+++ b/02-lab/output/excel/steepest_descent_method_custom_point.xlsx
@@ -61,7 +61,7 @@
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="11.7109375" customWidth="true"/>
+    <col min="3" max="3" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -77,145 +77,145 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.17499955293542602</v>
+        <v>0.25953961257257913</v>
       </c>
       <c r="B2" s="0">
-        <v>0.49500002980430491</v>
+        <v>0.4893640258284947</v>
       </c>
       <c r="C2" s="0">
-        <v>3.9999761565560537</v>
+        <v>0.15989375199295802</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.21719828924639534</v>
+        <v>0.25221309330814323</v>
       </c>
       <c r="B3" s="0">
-        <v>0.47911895233341567</v>
+        <v>0.37970996584690497</v>
       </c>
       <c r="C3" s="0">
-        <v>4.3999737722116592</v>
+        <v>0.10989854755627225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.24226713051314078</v>
+        <v>0.31403071315398778</v>
       </c>
       <c r="B4" s="0">
-        <v>0.45606590283039794</v>
+        <v>0.37558735228441553</v>
       </c>
       <c r="C4" s="0">
-        <v>4.8399711494328255</v>
+        <v>0.061954935767789918</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.26029557770000505</v>
+        <v>0.31199320603258096</v>
       </c>
       <c r="B5" s="0">
-        <v>0.43117249982172778</v>
+        <v>0.34514371970405322</v>
       </c>
       <c r="C5" s="0">
-        <v>5.3239682643761093</v>
+        <v>0.030511738723938402</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.27552079853705119</v>
+        <v>0.32849771289886665</v>
       </c>
       <c r="B6" s="0">
-        <v>0.40780355343351721</v>
+        <v>0.34404149355031</v>
       </c>
       <c r="C6" s="0">
-        <v>5.8563650908137213</v>
+        <v>0.01654127109363927</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.28903541899827428</v>
+        <v>0.32798894399006445</v>
       </c>
       <c r="B7" s="0">
-        <v>0.3875855806915337</v>
+        <v>0.33627365889474953</v>
       </c>
       <c r="C7" s="0">
-        <v>6.442016267429997</v>
+        <v>0.0077844782123588658</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.30082606791835415</v>
+        <v>0.33213914637655312</v>
       </c>
       <c r="B8" s="0">
-        <v>0.37114734811155986</v>
+        <v>0.33599350448298504</v>
       </c>
       <c r="C8" s="0">
-        <v>7.0862178941729983</v>
+        <v>0.00415964738208029</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.3106625704013255</v>
+        <v>0.33200881278859945</v>
       </c>
       <c r="B9" s="0">
-        <v>0.35850816179355566</v>
+        <v>0.33403760706666108</v>
       </c>
       <c r="C9" s="0">
-        <v>7.7948396835902987</v>
+        <v>0.0019602350745080775</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.31841153567737135</v>
+        <v>0.33302105084729999</v>
       </c>
       <c r="B10" s="0">
-        <v>0.34929205392581342</v>
+        <v>0.33399413725999699</v>
       </c>
       <c r="C10" s="0">
-        <v>8.574323651949328</v>
+        <v>0.0010131710179299867</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.32412939205304853</v>
+        <v>0.33300327533167678</v>
       </c>
       <c r="B11" s="0">
-        <v>0.34291193200929088</v>
+        <v>0.33350049699321571</v>
       </c>
       <c r="C11" s="0">
-        <v>9.4317560171442629</v>
+        <v>0.00049396020279326915</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.32805587707380818</v>
+        <v>0.33325804877504039</v>
       </c>
       <c r="B12" s="0">
-        <v>0.33872804970286036</v>
+        <v>0.33349829376362217</v>
       </c>
       <c r="C12" s="0">
-        <v>10.374946218188372</v>
+        <v>0.00025478296972913391</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.33054935727516349</v>
+        <v>0.33324970174864604</v>
       </c>
       <c r="B13" s="0">
-        <v>0.33614850100885807</v>
+        <v>0.3333507099608311</v>
       </c>
       <c r="C13" s="0">
-        <v>11.412440840007209</v>
+        <v>0.00014781965936879062</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.33200141747317408</v>
+        <v>0.3333273903624836</v>
       </c>
       <c r="B14" s="0">
-        <v>0.33467209000223019</v>
+        <v>0.33337603671145566</v>
       </c>
       <c r="C14" s="0">
-        <v>12.553684924007932</v>
+        <v>8.1712698016894725e-05</v>
       </c>
     </row>
     <row r="15">

--- a/02-lab/output/excel/steepest_descent_method_custom_point.xlsx
+++ b/02-lab/output/excel/steepest_descent_method_custom_point.xlsx
@@ -88,87 +88,87 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.25221309330814323</v>
+        <v>0.25221277181450646</v>
       </c>
       <c r="B3" s="0">
-        <v>0.37970996584690497</v>
+        <v>0.37970515413737976</v>
       </c>
       <c r="C3" s="0">
-        <v>0.10989854755627225</v>
+        <v>0.10990336999411149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.31403071315398778</v>
+        <v>0.31403544707847086</v>
       </c>
       <c r="B4" s="0">
-        <v>0.37558735228441553</v>
+        <v>0.37558587506132396</v>
       </c>
       <c r="C4" s="0">
-        <v>0.061954935767789918</v>
+        <v>0.061959758205629135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.31199320603258096</v>
+        <v>0.31199326928318155</v>
       </c>
       <c r="B5" s="0">
-        <v>0.34514371970405322</v>
+        <v>0.3451377221617975</v>
       </c>
       <c r="C5" s="0">
-        <v>0.030511738723938402</v>
+        <v>0.030516561161777641</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.32849771289886665</v>
+        <v>0.32849817107758439</v>
       </c>
       <c r="B6" s="0">
-        <v>0.34404149355031</v>
+        <v>0.34404142560046702</v>
       </c>
       <c r="C6" s="0">
-        <v>0.01654127109363927</v>
+        <v>0.016541271093639273</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.32798894399006445</v>
+        <v>0.32798683635020448</v>
       </c>
       <c r="B7" s="0">
-        <v>0.33627365889474953</v>
+        <v>0.3362406347067064</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0077844782123588658</v>
+        <v>0.0078175316930348127</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.33213914637655312</v>
+        <v>0.33215195205499043</v>
       </c>
       <c r="B8" s="0">
-        <v>0.33599350448298504</v>
+        <v>0.33599635914329656</v>
       </c>
       <c r="C8" s="0">
-        <v>0.00415964738208029</v>
+        <v>0.0041722726882520156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.33200881278859945</v>
+        <v>0.33200775937187382</v>
       </c>
       <c r="B9" s="0">
-        <v>0.33403760706666108</v>
+        <v>0.33402877520562285</v>
       </c>
       <c r="C9" s="0">
-        <v>0.0019602350745080775</v>
+        <v>0.0019728603806798018</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.33302105084729999</v>
+        <v>0.33302037272643958</v>
       </c>
       <c r="B10" s="0">
-        <v>0.33399413725999699</v>
+        <v>0.33399516411030689</v>
       </c>
       <c r="C10" s="0">
         <v>0.0010131710179299867</v>
@@ -176,46 +176,46 @@
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.33300327533167678</v>
+        <v>0.33300233282986175</v>
       </c>
       <c r="B11" s="0">
-        <v>0.33350049699321571</v>
+        <v>0.33348889991048153</v>
       </c>
       <c r="C11" s="0">
-        <v>0.00049396020279326915</v>
+        <v>0.00050658550896499335</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.33325804877504039</v>
+        <v>0.33324912365432469</v>
       </c>
       <c r="B12" s="0">
-        <v>0.33349829376362217</v>
+        <v>0.33349856735310041</v>
       </c>
       <c r="C12" s="0">
-        <v>0.00025478296972913391</v>
+        <v>0.00024698010139663458</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.33324970174864604</v>
+        <v>0.33325093596757926</v>
       </c>
       <c r="B13" s="0">
-        <v>0.3333507099608311</v>
+        <v>0.33335856229143201</v>
       </c>
       <c r="C13" s="0">
-        <v>0.00014781965936879062</v>
+        <v>0.00014001679103629123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.3333273903624836</v>
+        <v>0.33330307070947712</v>
       </c>
       <c r="B14" s="0">
-        <v>0.33337603671145566</v>
+        <v>0.33337048940877245</v>
       </c>
       <c r="C14" s="0">
-        <v>8.1712698016894725e-05</v>
+        <v>5.348165518017163e-05</v>
       </c>
     </row>
     <row r="15">

--- a/02-lab/output/excel/steepest_descent_method_custom_point.xlsx
+++ b/02-lab/output/excel/steepest_descent_method_custom_point.xlsx
@@ -77,156 +77,156 @@
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.25953961257257913</v>
+        <v>0.25952642046360552</v>
       </c>
       <c r="B2" s="0">
-        <v>0.4893640258284947</v>
+        <v>0.48936490530242627</v>
       </c>
       <c r="C2" s="0">
-        <v>0.15989375199295802</v>
+        <v>0.15988053060068763</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.25221277181450646</v>
+        <v>0.25222040335907242</v>
       </c>
       <c r="B3" s="0">
-        <v>0.37970515413737976</v>
+        <v>0.37969742150993119</v>
       </c>
       <c r="C3" s="0">
-        <v>0.10990336999411149</v>
+        <v>0.10991057677634533</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.31403544707847086</v>
+        <v>0.31405042203216127</v>
       </c>
       <c r="B4" s="0">
-        <v>0.37558587506132396</v>
+        <v>0.37557995375747427</v>
       </c>
       <c r="C4" s="0">
-        <v>0.061959758205629135</v>
+        <v>0.061966964987862992</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.31199326928318155</v>
+        <v>0.3119963291609778</v>
       </c>
       <c r="B5" s="0">
-        <v>0.3451377221617975</v>
+        <v>0.34515068722167674</v>
       </c>
       <c r="C5" s="0">
-        <v>0.030516561161777641</v>
+        <v>0.030498517331668022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.32849817107758439</v>
+        <v>0.32852782734393465</v>
       </c>
       <c r="B6" s="0">
-        <v>0.34404142560046702</v>
+        <v>0.34403793588686504</v>
       </c>
       <c r="C6" s="0">
-        <v>0.016541271093639273</v>
+        <v>0.016568906050377332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.32798683635020448</v>
+        <v>0.32799308480468031</v>
       </c>
       <c r="B7" s="0">
-        <v>0.3362406347067064</v>
+        <v>0.33628509879451729</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0078175316930348127</v>
+        <v>0.0077712568200884709</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.33215195205499043</v>
+        <v>0.33216982788128813</v>
       </c>
       <c r="B8" s="0">
-        <v>0.33599635914329656</v>
+        <v>0.33598819703132143</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0041722726882520156</v>
+        <v>0.0041872823388183376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.33200775937187382</v>
+        <v>0.33201459829253127</v>
       </c>
       <c r="B9" s="0">
-        <v>0.33402877520562285</v>
+        <v>0.33404738120966421</v>
       </c>
       <c r="C9" s="0">
-        <v>0.0019728603806798018</v>
+        <v>0.001947013682237675</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.33302037272643958</v>
+        <v>0.33305374631226431</v>
       </c>
       <c r="B10" s="0">
-        <v>0.33399516411030689</v>
+        <v>0.3339886575347995</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0010131710179299867</v>
+        <v>0.0010408059746680298</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.33300233282986175</v>
+        <v>0.33300898515114841</v>
       </c>
       <c r="B11" s="0">
-        <v>0.33348889991048153</v>
+        <v>0.33351000709617179</v>
       </c>
       <c r="C11" s="0">
-        <v>0.00050658550896499335</v>
+        <v>0.00048073881052286424</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.33324912365432469</v>
+        <v>0.33327529673388973</v>
       </c>
       <c r="B12" s="0">
-        <v>0.33349856735310041</v>
+        <v>0.33349367046479145</v>
       </c>
       <c r="C12" s="0">
-        <v>0.00024698010139663458</v>
+        <v>0.0002668121898021774</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.33325093596757926</v>
+        <v>0.333252913280078</v>
       </c>
       <c r="B13" s="0">
-        <v>0.33335856229143201</v>
+        <v>0.33336094641082475</v>
       </c>
       <c r="C13" s="0">
-        <v>0.00014001679103629123</v>
+        <v>0.00013459826709838517</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.33330307070947712</v>
+        <v>0.33332021258664302</v>
       </c>
       <c r="B14" s="0">
-        <v>0.33337048940877245</v>
+        <v>0.33337366892231923</v>
       </c>
       <c r="C14" s="0">
-        <v>5.348165518017163e-05</v>
+        <v>6.8491305746489289e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.33276689755665745</v>
+        <v>0.33332141167952506</v>
       </c>
       <c r="B15" s="0">
-        <v>0.33390095747090182</v>
+        <v>0.33331598662842504</v>
       </c>
       <c r="C15" s="0">
-        <v>13.809053416408727</v>
+        <v>5.2885569081516712e-05</v>
       </c>
     </row>
     <row r="16">

--- a/02-lab/output/excel/steepest_descent_method_custom_point.xlsx
+++ b/02-lab/output/excel/steepest_descent_method_custom_point.xlsx
@@ -1,23 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <workbookPr/>
+  <fileVersion appName="Calc"/>
+  <workbookPr date1904="false" showObjects="all" backupFile="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725" fullCalcOnLoad="true"/>
+  <calcPr fullCalcOnLoad="true" refMode="A1" iterate="false" iterateCount="100" iterateDelta="0.0001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <fonts count="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -29,7 +56,7 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -38,30 +65,174 @@
     </border>
     <border/>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18A303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369A3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A33E03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8E03A3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="C99C00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="C9211E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000EE"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551A8B"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="A1:F19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" customWidth="true"/>
-    <col min="2" max="2" width="12.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.7109375" customWidth="true"/>
+    <col min="1" max="1" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="3" max="3" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="4" max="4" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="5" max="5" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="2" max="2" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
+    <col min="6" max="6" width="8.140625" style="0" hidden="false" customWidth="true" outlineLevel="0" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -72,150 +243,276 @@
         <v>0.5</v>
       </c>
       <c r="C1" s="0">
+        <v>-0.0025000000000000001</v>
+      </c>
+      <c r="D1" s="0">
+        <v>-0.018750000000000003</v>
+      </c>
+      <c r="E1" s="0">
+        <v>0.0012500000000000011</v>
+      </c>
+      <c r="F1" s="0">
         <v>-1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.25952642046360552</v>
+        <v>0.25954969044706833</v>
       </c>
       <c r="B2" s="0">
-        <v>0.48936490530242627</v>
+        <v>0.48936335397019542</v>
       </c>
       <c r="C2" s="0">
-        <v>0.15988053060068763</v>
+        <v>-0.0039864481815635316</v>
+      </c>
+      <c r="D2" s="0">
+        <v>0.00051766903962125604</v>
+      </c>
+      <c r="E2" s="0">
+        <v>0.0077305706802884219</v>
+      </c>
+      <c r="F2" s="0">
+        <v>0.15990385223789541</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.25222040335907242</v>
+        <v>0.25220869872984797</v>
       </c>
       <c r="B3" s="0">
-        <v>0.37969742150993119</v>
+        <v>0.37973722030204332</v>
       </c>
       <c r="C3" s="0">
-        <v>0.10991057677634533</v>
+        <v>-0.0044062068260906596</v>
+      </c>
+      <c r="D3" s="0">
+        <v>-0.0054988504294981033</v>
+      </c>
+      <c r="E3" s="0">
+        <v>0.00036832367106139074</v>
+      </c>
+      <c r="F3" s="0">
+        <v>0.10987164940247257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>0.31405042203216127</v>
+        <v>0.31404408334598172</v>
       </c>
       <c r="B4" s="0">
-        <v>0.37557995375747427</v>
+        <v>0.37559536626267348</v>
       </c>
       <c r="C4" s="0">
-        <v>0.061966964987862992</v>
+        <v>-0.004576014244830855</v>
+      </c>
+      <c r="D4" s="0">
+        <v>0.00017293973865468298</v>
+      </c>
+      <c r="E4" s="0">
+        <v>0.0025608259940694128</v>
+      </c>
+      <c r="F4" s="0">
+        <v>0.061973944085467358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>0.3119963291609778</v>
+        <v>0.31198859401078133</v>
       </c>
       <c r="B5" s="0">
-        <v>0.34515068722167674</v>
+        <v>0.34515846054591376</v>
       </c>
       <c r="C5" s="0">
-        <v>0.030498517331668022</v>
+        <v>-0.0046150364777787726</v>
+      </c>
+      <c r="D5" s="0">
+        <v>-0.0013316365032747385</v>
+      </c>
+      <c r="E5" s="0">
+        <v>8.9911801916697787e-05</v>
+      </c>
+      <c r="F5" s="0">
+        <v>0.030506233232210793</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.32852782734393465</v>
+        <v>0.32853186243960825</v>
       </c>
       <c r="B6" s="0">
-        <v>0.34403793588686504</v>
+        <v>0.34404146272378316</v>
       </c>
       <c r="C6" s="0">
-        <v>0.016568906050377332</v>
+        <v>-0.0046260716163921741</v>
+      </c>
+      <c r="D6" s="0">
+        <v>4.752879494002854e-05</v>
+      </c>
+      <c r="E6" s="0">
+        <v>0.000682310901076566</v>
+      </c>
+      <c r="F6" s="0">
+        <v>0.01658093527045041</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>0.32799308480468031</v>
+        <v>0.3279910005689694</v>
       </c>
       <c r="B7" s="0">
-        <v>0.33628509879451729</v>
+        <v>0.33627699171669823</v>
       </c>
       <c r="C7" s="0">
-        <v>0.0077712568200884709</v>
+        <v>-0.0046287299293757342</v>
+      </c>
+      <c r="D7" s="0">
+        <v>-0.00032539032446252114</v>
+      </c>
+      <c r="E7" s="0">
+        <v>2.2343731028752478e-05</v>
+      </c>
+      <c r="F7" s="0">
+        <v>0.0077832860401615559</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.33216982788128813</v>
+        <v>0.33213968629509527</v>
       </c>
       <c r="B8" s="0">
-        <v>0.33598819703132143</v>
+        <v>0.33599211195532086</v>
       </c>
       <c r="C8" s="0">
-        <v>0.0041872823388183376</v>
+        <v>-0.0046294085336141978</v>
+      </c>
+      <c r="D8" s="0">
+        <v>1.140208322620434e-05</v>
+      </c>
+      <c r="E8" s="0">
+        <v>0.00017121428025532875</v>
+      </c>
+      <c r="F8" s="0">
+        <v>0.0041584552098829809</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.33201459829253127</v>
+        <v>0.33201005435864672</v>
       </c>
       <c r="B9" s="0">
-        <v>0.33404738120966421</v>
+        <v>0.33404555199282776</v>
       </c>
       <c r="C9" s="0">
-        <v>0.001947013682237675</v>
+        <v>-0.0046295747301965742</v>
+      </c>
+      <c r="D9" s="0">
+        <v>-8.076967947862751e-05</v>
+      </c>
+      <c r="E9" s="0">
+        <v>4.1981984238298464e-06</v>
+      </c>
+      <c r="F9" s="0">
+        <v>0.0019508716325090782</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>0.33305374631226431</v>
+        <v>0.33306339660682971</v>
       </c>
       <c r="B10" s="0">
-        <v>0.3339886575347995</v>
+        <v>0.33399080199512293</v>
       </c>
       <c r="C10" s="0">
-        <v>0.0010408059746680298</v>
+        <v>-0.0046296159858959796</v>
+      </c>
+      <c r="D10" s="0">
+        <v>4.9094647614975062e-06</v>
+      </c>
+      <c r="E10" s="0">
+        <v>4.3506431039772031e-05</v>
+      </c>
+      <c r="F10" s="0">
+        <v>0.0010547641698768144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.33300898515114841</v>
+        <v>0.33301088990775252</v>
       </c>
       <c r="B11" s="0">
-        <v>0.33351000709617179</v>
+        <v>0.33352550095040551</v>
       </c>
       <c r="C11" s="0">
-        <v>0.00048073881052286424</v>
+        <v>-0.0046296263396634653</v>
+      </c>
+      <c r="D11" s="0">
+        <v>-1.887417616745074e-05</v>
+      </c>
+      <c r="E11" s="0">
+        <v>2.5763307809623104e-06</v>
+      </c>
+      <c r="F11" s="0">
+        <v>0.00046825422119089083</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.33327529673388973</v>
+        <v>0.33328525807962084</v>
       </c>
       <c r="B12" s="0">
-        <v>0.33349367046479145</v>
+        <v>0.33348804961159051</v>
       </c>
       <c r="C12" s="0">
-        <v>0.0002668121898021774</v>
+        <v>-0.0046296288459649285</v>
+      </c>
+      <c r="D12" s="0">
+        <v>2.4413730861025384e-06</v>
+      </c>
+      <c r="E12" s="0">
+        <v>1.0888317014415283e-05</v>
+      </c>
+      <c r="F12" s="0">
+        <v>0.00027691243473958269</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.333252913280078</v>
+        <v>0.33326211670324246</v>
       </c>
       <c r="B13" s="0">
-        <v>0.33336094641082475</v>
+        <v>0.33338484103458443</v>
       </c>
       <c r="C13" s="0">
-        <v>0.00013459826709838517</v>
+        <v>-0.0046296294605936445</v>
+      </c>
+      <c r="D13" s="0">
+        <v>-3.7891503762571555e-06</v>
+      </c>
+      <c r="E13" s="0">
+        <v>1.3246657752929991e-06</v>
+      </c>
+      <c r="F13" s="0">
+        <v>0.00010577113816303344</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.33332021258664302</v>
+        <v>0.33336196229639542</v>
       </c>
       <c r="B14" s="0">
-        <v>0.33337366892231923</v>
+        <v>0.33334993557374754</v>
       </c>
       <c r="C14" s="0">
-        <v>6.8491305746489289e-05</v>
+        <v>-0.0046296295641870735</v>
+      </c>
+      <c r="D14" s="0">
+        <v>3.0776602196261327e-06</v>
+      </c>
+      <c r="E14" s="0">
+        <v>2.5766147738609524e-06</v>
+      </c>
+      <c r="F14" s="0">
+        <v>0.00010577113816303344</v>
       </c>
     </row>
     <row r="15">
@@ -226,42 +523,25 @@
         <v>0.33331598662842504</v>
       </c>
       <c r="C15" s="0">
+        <v>-0.0046296296025539092</v>
+      </c>
+      <c r="D15" s="0">
+        <v>-1.7161612079971689e-06</v>
+      </c>
+      <c r="E15" s="0">
+        <v>-1.9422248516212659e-06</v>
+      </c>
+      <c r="F15" s="0">
         <v>5.2885569081516712e-05</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="0">
-        <v>0.33312526030419953</v>
-      </c>
-      <c r="B16" s="0">
-        <v>0.33354155930539126</v>
-      </c>
-      <c r="C16" s="0">
-        <v>15.189958758049601</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="0">
-        <v>0.33327010603330542</v>
-      </c>
-      <c r="B17" s="0">
-        <v>0.33339657512060317</v>
-      </c>
-      <c r="C17" s="0">
-        <v>16.70895463385456</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="0">
-        <v>0.33331852534433676</v>
-      </c>
-      <c r="B18" s="0">
-        <v>0.3333481408988429</v>
-      </c>
-      <c r="C18" s="0">
-        <v>18.379866081825796</v>
-      </c>
-    </row>
   </sheetData>
+  <printOptions horizontalCentered="false" verticalCentered="false" headings="false" gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.74791666666667" right="0.74791666666667" top="0.98402777777778" bottom="0.98402777777778" header="0.51181102362205" footer="0.51181102362205"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>